--- a/public/data/TacGia.xlsx
+++ b/public/data/TacGia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\FileImportMau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-gdvn-hethongquanly\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175C137F-4AA1-42E8-A36B-7902A60A2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36DC23-D9E0-42C1-ADCE-DDB837125718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -75,67 +75,22 @@
     <t>TÁC GIẢ</t>
   </si>
   <si>
-    <t>Võ Phước Hải</t>
-  </si>
-  <si>
-    <t>30/04/1980</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>vphai@gmail.com</t>
-  </si>
-  <si>
-    <t>Trường phổ thông trung học lương thế vinh</t>
-  </si>
-  <si>
-    <t>Phó hiệu trưởng</t>
-  </si>
-  <si>
-    <t>Lý</t>
-  </si>
-  <si>
-    <t>Huỳnh Bá Phương</t>
-  </si>
-  <si>
-    <t>0909789789</t>
-  </si>
-  <si>
-    <t>0978787879</t>
-  </si>
-  <si>
-    <t>hbphuong@gmail.com</t>
-  </si>
-  <si>
-    <t>Trường phổ thông trung học hòa An</t>
-  </si>
-  <si>
-    <t>Trưởng bộ môn</t>
-  </si>
-  <si>
-    <t>Toán</t>
-  </si>
-  <si>
-    <t>Võ Quang Nhật Hồng</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>0909789787</t>
-  </si>
-  <si>
-    <t>vqnhong@gmail.com</t>
-  </si>
-  <si>
-    <t>Trường phổ thông trung học Tầm Vu</t>
-  </si>
-  <si>
-    <t>09/09/1975</t>
-  </si>
-  <si>
-    <t>20/10/1980</t>
+    <t>Trương Phúc Vĩnh</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>vinhtruong.dev@gmail.com</t>
+  </si>
+  <si>
+    <t>Phòng kỹ thuật</t>
+  </si>
+  <si>
+    <t>Nhân viện</t>
+  </si>
+  <si>
+    <t>Tin học</t>
   </si>
 </sst>
 </file>
@@ -225,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,20 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA987291-4EE6-4FC6-B1B7-326C68B1DB13}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,20 +548,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,99 +629,35 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8">
+        <v>37245</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5">
+        <v>8420101000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>988676777</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
-        <v>30801011123</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30701022233</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30751022234</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -777,11 +665,9 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{8313C664-AAC0-4D51-B90F-771DF6A3B8C5}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{7BA85439-93FC-4F22-BB62-12D352EB9850}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{BF914ACE-18B6-4C0F-B1BC-71607AAA5C38}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{C5A0576A-4C39-43D8-9A04-786866DD7A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>